--- a/medicine/Enfance/Prix_du_Gouverneur_général___littérature_jeunesse_de_langue_française_-_illustration/Prix_du_Gouverneur_général___littérature_jeunesse_de_langue_française_-_illustration.xlsx
+++ b/medicine/Enfance/Prix_du_Gouverneur_général___littérature_jeunesse_de_langue_française_-_illustration/Prix_du_Gouverneur_général___littérature_jeunesse_de_langue_française_-_illustration.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Prix_du_Gouverneur_g%C3%A9n%C3%A9ral_:_litt%C3%A9rature_jeunesse_de_langue_fran%C3%A7aise_-_illustration</t>
+          <t>Prix_du_Gouverneur_général_:_littérature_jeunesse_de_langue_française_-_illustration</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t>Le prix littéraire du Gouverneur général dans la catégorie littérature jeunesse de langue française - illustration est l'un des plus prestigieux prix de littérature d'enfance et de jeunesse au Canada. Ce prix fut décerné pour la première fois en 1987, en même temps que le prix du Gouverneur général : littérature jeunesse de langue anglaise - illustration.
 Voici la liste des lauréats :
@@ -519,8 +531,8 @@
 2019 - Delphie Côté-Lacroix et Stéphanie Lapointe, Jack et le temps perdu
 2020 - Katia Canciani et Guillaume Perreault, Pet et Répète: La véritable histoire
 2021 - Mario Brassard et Gérard DuBois, À qui appartiennent les nuages ?
-2022 - Nadine Robert and Qin Leng, Trèfle[1]
-2023 - Samuel Larochelle et Eve Patenaude, Le plus petit sauveur du monde[2]</t>
+2022 - Nadine Robert and Qin Leng, Trèfle
+2023 - Samuel Larochelle et Eve Patenaude, Le plus petit sauveur du monde</t>
         </is>
       </c>
     </row>
